--- a/PFASs.xlsx
+++ b/PFASs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyfas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95C16E2-52A3-4EBB-A31D-F32274C76AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A8EA2-9B4E-4C6E-81FA-0A1E92E0D6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{902DA086-474E-404B-B7DC-90FB35CEC17F}"/>
   </bookViews>
@@ -445,15 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188F890C-359A-4A41-9F38-968434D54D21}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -490,6 +490,7 @@
         <v>300.10000000000002</v>
       </c>
       <c r="C2">
+        <f>SUM(D2:F2)</f>
         <v>4</v>
       </c>
       <c r="D2">
@@ -511,8 +512,12 @@
         <f>LOG10(H2)</f>
         <v>-4.9586073148417746</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>-4.536 + -0.1088 * D2</f>
+        <v>-4.9711999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -520,6 +525,7 @@
         <v>264.05</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">SUM(D3:F3)</f>
         <v>5</v>
       </c>
       <c r="D3">
@@ -538,11 +544,15 @@
         <v>1.2E-5</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="0">LOG10(H3)</f>
+        <f t="shared" ref="I3:I11" si="1">LOG10(H3)</f>
         <v>-4.9208187539523749</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="2">-4.536 + -0.1088 * D3</f>
+        <v>-4.9711999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -550,6 +560,7 @@
         <v>314.05</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D4">
@@ -568,11 +579,15 @@
         <v>7.7999999999999999E-6</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.1079053973095192</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>-5.0799999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -580,6 +595,7 @@
         <v>400.12</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D5">
@@ -598,11 +614,15 @@
         <v>4.5000000000000001E-6</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.346787486224656</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>-5.1887999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -610,6 +630,7 @@
         <v>364.06</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D6">
@@ -628,11 +649,15 @@
         <v>9.3000000000000007E-6</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.0315170514460652</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>-5.1887999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -640,6 +665,7 @@
         <v>414.07</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D7">
@@ -658,11 +684,15 @@
         <v>4.8999999999999997E-6</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.3098039199714862</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>-5.2975999999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -670,6 +700,7 @@
         <v>500.13</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D8">
@@ -688,11 +719,15 @@
         <v>5.4E-6</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.2676062401770318</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>-5.4063999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -700,6 +735,7 @@
         <v>464.08</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D9">
@@ -718,11 +754,15 @@
         <v>2.9299999999999999E-6</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.5331323796458909</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>-5.4063999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -730,6 +770,7 @@
         <v>514.08000000000004</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D10">
@@ -748,11 +789,15 @@
         <v>2.2699999999999999E-6</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.6439741428068775</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>-5.5151999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -760,6 +805,7 @@
         <v>892.23</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D11">
@@ -778,8 +824,12 @@
         <v>2.3E-6</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.6382721639824069</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>-5.7327999999999992</v>
       </c>
     </row>
   </sheetData>
